--- a/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/SWMCISO9126-CP.xlsx
+++ b/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/SWMCISO9126-CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUDU\UNMSM\GESTION_DE_LA_CONFIGURACION_Y_MANTENIMIENTO\PROYECTO\SISTEMA_WEB_ISO9126\desarrollo\SW_ModeloDeCalidad-ISO9126\7. Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUDU\UNMSM\GESTION_DE_LA_CONFIGURACION_Y_MANTENIMIENTO\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>En progreso</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +264,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -632,10 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -930,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,11 +1922,11 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="71">
-        <v>0.8</v>
+      <c r="G27" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2071,9 +2064,11 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H30" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -2116,9 +2111,11 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -2162,9 +2159,11 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" s="64"/>
+      <c r="G32" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H32" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
@@ -2808,6 +2807,9 @@
       <c r="B51" s="70" t="s">
         <v>61</v>
       </c>
+      <c r="I51" t="s">
+        <v>65</v>
+      </c>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
